--- a/portfolio-optimization/results/selected_assets_summary.xlsx
+++ b/portfolio-optimization/results/selected_assets_summary.xlsx
@@ -1,82 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nachogutierrezdelaroza/Documents/2_PP/WM/portfolio-optimization/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6E83C1-FABA-5844-A7AC-1EC7307130FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>ExpReturn</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Sharpe</t>
-  </si>
-  <si>
-    <t>JGSA</t>
-  </si>
-  <si>
-    <t>SGLN</t>
-  </si>
-  <si>
-    <t>WMVG LN</t>
-  </si>
-  <si>
-    <t>MVEU LN Equity</t>
-  </si>
-  <si>
-    <t>TECW LN</t>
-  </si>
-  <si>
-    <t>ARTGEIG LN</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,132 +420,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ExpReturn</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JGSA</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.2</v>
       </c>
-      <c r="C2">
-        <v>4.8537818498546832E-2</v>
-      </c>
-      <c r="D2">
-        <v>5.9649189591023024E-3</v>
-      </c>
-      <c r="E2">
+      <c r="C2" t="n">
+        <v>0.04853781849854683</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.005964918959102302</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.59898542862722</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SGLN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.185406672835213</v>
       </c>
-      <c r="D3">
-        <v>0.14276433142864109</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>0.1427643314286411</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.025512965109163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WMVG LN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.2</v>
       </c>
-      <c r="C4">
-        <v>0.11046509164667891</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>0.1104650916466789</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.1103206053183034</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.6477945932265663</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.19265234181924951</v>
-      </c>
-      <c r="C5">
-        <v>0.11563513361662441</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MVEU LN Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1926523418192495</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1156351336166244</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.1144895806712278</v>
       </c>
-      <c r="E5">
-        <v>0.66936338806840834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="E5" t="n">
+        <v>0.6693633880684083</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TECW LN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.1525563661451452</v>
       </c>
-      <c r="C6">
-        <v>0.21804924080848029</v>
-      </c>
-      <c r="D6">
-        <v>0.23428637325302651</v>
-      </c>
-      <c r="E6">
-        <v>0.76423241489640192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>5.4791292027046877E-2</v>
-      </c>
-      <c r="C7">
+      <c r="C6" t="n">
+        <v>0.2180492408084803</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2342863732530265</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7642324148964019</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ARTGEIG LN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05479129202704688</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.1038370154838628</v>
       </c>
-      <c r="D7">
-        <v>0.14829939881366569</v>
-      </c>
-      <c r="E7">
-        <v>0.43720349510876161</v>
+      <c r="D7" t="n">
+        <v>0.1482993988136657</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4372034951087616</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio-optimization/results/selected_assets_summary.xlsx
+++ b/portfolio-optimization/results/selected_assets_summary.xlsx
@@ -470,13 +470,13 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04853781849854683</v>
+        <v>0.04879550243866605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005964918959102302</v>
+        <v>0.005954525361048833</v>
       </c>
       <c r="E2" t="n">
-        <v>1.59898542862722</v>
+        <v>1.645051762268533</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185406672835213</v>
+        <v>0.1884369884805298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1427643314286411</v>
+        <v>0.1427852673396272</v>
       </c>
       <c r="E3" t="n">
-        <v>1.025512965109163</v>
+        <v>1.046585486477964</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1104650916466789</v>
+        <v>0.1177273822883147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1103206053183034</v>
+        <v>0.1097642259820403</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6477945932265663</v>
+        <v>0.7172408094163223</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1926523418192495</v>
+        <v>0.1875320075471793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1156351336166244</v>
+        <v>0.1197300911685313</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1144895806712278</v>
+        <v>0.1143798086650707</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6693633880684083</v>
+        <v>0.7058071884429076</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1525563661451452</v>
+        <v>0.152155804319207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2180492408084803</v>
+        <v>0.2281010324356234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2342863732530265</v>
+        <v>0.2338861163958089</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7642324148964019</v>
+        <v>0.8085175612373885</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05479129202704688</v>
+        <v>0.06031218813333689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1038370154838628</v>
+        <v>0.1090459691992094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1482993988136657</v>
+        <v>0.1481662248229568</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4372034951087616</v>
+        <v>0.472752607977338</v>
       </c>
     </row>
   </sheetData>
